--- a/Income/INTC_inc.xlsx
+++ b/Income/INTC_inc.xlsx
@@ -2178,16 +2178,16 @@
         <v>0.5575</v>
       </c>
       <c r="D16" s="0" t="n">
-        <v>0.5646</v>
+        <v>0.5652</v>
       </c>
       <c r="E16" s="0" t="n">
-        <v>0.5781</v>
+        <v>0.5788</v>
       </c>
       <c r="F16" s="0" t="n">
-        <v>0.5944</v>
+        <v>0.5951</v>
       </c>
       <c r="G16" s="0" t="n">
-        <v>0.5849</v>
+        <v>0.5856</v>
       </c>
       <c r="H16" s="0" t="n">
         <v>0.5892</v>
@@ -3702,16 +3702,16 @@
         <v>0.4612</v>
       </c>
       <c r="D28" s="0" t="n">
-        <v>0.4744</v>
+        <v>0.473</v>
       </c>
       <c r="E28" s="0" t="n">
-        <v>0.4815</v>
+        <v>0.4801</v>
       </c>
       <c r="F28" s="0" t="n">
-        <v>0.4809</v>
+        <v>0.4795</v>
       </c>
       <c r="G28" s="0" t="n">
-        <v>0.4581</v>
+        <v>0.4566</v>
       </c>
       <c r="H28" s="0" t="n">
         <v>0.4518</v>
